--- a/update_data/data/suning_biu/dialogue/流程 11.7.xlsx
+++ b/update_data/data/suning_biu/dialogue/流程 11.7.xlsx
@@ -13,15 +13,15 @@
   </sheets>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="2"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{35CFE192-710A-4597-A27A-79E92194DC45}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="2"/>
     <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="2"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{35CFE192-710A-4597-A27A-79E92194DC45}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="2"/>
-    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="941" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>请您扫描二维码下载苏宁金融，按照APP的提示注册或登录，并完成实名认证。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,25 @@
       </rPr>
       <t>/我要注册/我想注册/我注册/我要登录/我想登录/我注册好了/注册好了/注册过了/已经注册过了/注册了的/我有苏宁易购账号还要注册吗/有苏宁易购账号还要注册的吗/我注册过苏宁易购账号了啊/我是注册过苏宁易购账号的/我以前注册过苏宁易购账号的/我注册过苏宁易购账号了/苏宁易购账号/我有易购账号的，可以么/有易购账号算不算注册过/有易购账号算不算会员/我已经注册过苏宁易购了/我已经注册过了/我注册好了/我早就注册过苏宁账号了/苏宁账号我已经有了/我已经有过苏宁账号了/我有苏宁账号/注册过了/我早就有苏宁账号了/有苏宁账号的/我是有苏宁易购账号的/我有账号的 /我有账号了能不能进店/我有注册苏宁金融账号，然后呢/我注册过苏宁金融账号了/注册过苏宁金融账号了</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载软件</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>开启刷脸支付</t>
+  </si>
+  <si>
+    <t>初级实名认证</t>
+  </si>
+  <si>
+    <t>开启刷脸支付成功</t>
+  </si>
+  <si>
+    <t>欢迎界面-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,8 +611,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F8B74AA3-E97E-4BFC-A440-BE17645FCC65}" diskRevisions="1" revisionId="107" version="53">
-  <header guid="{F8B74AA3-E97E-4BFC-A440-BE17645FCC65}" dateTime="2017-12-06T13:57:13" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId53" minRId="107">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C5FC5A4C-69D4-4224-8803-3290558F8964}" diskRevisions="1" revisionId="122" version="54">
+  <header guid="{C5FC5A4C-69D4-4224-8803-3290558F8964}" dateTime="2018-01-28T14:20:53" maxSheetId="4" userName="fang.gao(高芳)" r:id="rId54" minRId="108" maxRId="122">
     <sheetIdMap count="3">
       <sheetId val="2"/>
       <sheetId val="1"/>
@@ -603,50 +622,165 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="107" sId="2">
-    <oc r="F17" t="inlineStr">
+  <rcc rId="108" sId="2" xfDxf="1" dxf="1">
+    <nc r="H11" t="inlineStr">
       <is>
-        <r>
-          <t>怎么登录或注册/登录怎么弄/怎么注册/新用户怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/APP怎么登录/软件怎么登/怎么登录或注册/请问怎么登录/请问在哪里登录呢/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/软件怎么进去啊/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/还要注册啊，这个怎么办/注册咋整/你能告诉我怎么登录吗/你能教我怎么登录注册吗/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/在哪里登录呀/登录的地方在哪/是不是要先注册呀/点哪里注册登录呀/怎么找不到登录的地方/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/怎么登啊/注册怎么注册/注册在哪注册的/怎么注册账号啊/在哪注册账号/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/接下来怎么登啊/注册需要啥/这个软件要怎么登录啊/登录需要啥/要怎么注册呢/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/在哪儿登录啊/在哪儿注册啊/我想注册个账号，怎么办/我想登录我的账号，在哪儿登啊/你能教我怎么注册么/你能教我怎么登录么/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/如何登录/如何注册/怎么登录苏宁金融/怎么注册苏宁金融/怎么用呢/还没登录呢/还没登录成功呢/登录好了，下一步呢/登陆成功，下一步做什么/登录好了,然后呢/怎么登录呀/苏宁金融怎么登/怎么登录苏宁金融 /如何注册/我有易购账号的，可以么/有易购账号算不算注册过/有易购账号算不算会员/我已经注册过苏宁易购了/我已经注册过了/我注册好了/我早就注册过苏宁账号了/苏宁账号我已经有了/我已经有过苏宁账号了/我有苏宁账号/注册过了/我早就有苏宁账号了/有苏宁账号的/我是有苏宁易购账号的/我注册好了/注册好了/注册过了/已经注册过了/注册了的/我有账号的 /我有账号了能不能进店/我有注册苏宁金融账号，然后呢/我注册过苏宁金融账号了/注册过苏宁金融账号了/有账号/我有易购账号/易购账号行么/易购账号算什么/易购账号算么/以前注册过</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>/我要注册/我想注册/我注册/我要登录/我想登录/我注册好了/注册好了/注册过了/已经注册过了/注册了的/我有苏宁易购账号还要注册吗/有苏宁易购账号还要注册的吗/我注册过苏宁易购账号了啊/我是注册过苏宁易购账号的/我以前注册过苏宁易购账号的/我注册过苏宁易购账号了/苏宁易购账号/我有易购账号的，可以么/有易购账号算不算注册过/有易购账号算不算会员/我已经注册过苏宁易购了/我已经注册过了/我注册好了/我早就注册过苏宁账号了/苏宁账号我已经有了/我已经有过苏宁账号了/我有苏宁账号/注册过了/我早就有苏宁账号了/有苏宁账号的/我是有苏宁易购账号的/我有账号的 /我有账号了能不能进店/我有注册苏宁金融账号，然后呢/我注册过苏宁金融账号了/注册过苏宁金融账号了</t>
-        </r>
-        <phoneticPr fontId="1" type="noConversion"/>
+        <t>下载软件</t>
       </is>
-    </oc>
-    <nc r="F17" t="inlineStr">
+    </nc>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="109" sId="2" xfDxf="1" dxf="1">
+    <nc r="H12" t="inlineStr">
       <is>
-        <r>
-          <t>怎么登录或注册/登录怎么弄/怎么注册/新用户怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/APP怎么登录/软件怎么登/怎么登录或注册/请问怎么登录/请问在哪里登录呢/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/软件怎么进去啊/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/还要注册啊，这个怎么办/注册咋整/你能告诉我怎么登录吗/你能教我怎么登录注册吗/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/在哪里登录呀/登录的地方在哪/是不是要先注册呀/点哪里注册登录呀/怎么找不到登录的地方/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/怎么登啊/注册怎么注册/注册在哪注册的/怎么注册账号啊/在哪注册账号/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/接下来怎么登啊/注册需要啥/这个软件要怎么登录啊/登录需要啥/要怎么注册呢/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/在哪儿登录啊/在哪儿注册啊/我想注册个账号，怎么办/我想登录我的账号，在哪儿登啊/你能教我怎么注册么/你能教我怎么登录么/怎么登录或注册/登录怎么弄/怎么注册/怎么登录/登录注册需要什么/我怎么登录注册/注册怎么办/怎么才能完成注册呢/登录苏宁金融怎么办/如何登录/如何注册/怎么登录苏宁金融/怎么注册苏宁金融/怎么用呢/还没登录呢/还没登录成功呢/登录好了，下一步呢/登陆成功，下一步做什么/登录好了,然后呢/怎么登录呀/苏宁金融怎么登/怎么登录苏宁金融 /如何注册/我有易购账号的，可以么/有易购账号算不算注册过/有易购账号算不算会员/我已经注册过苏宁易购了/我已经注册过了/我注册好了/我早就注册过苏宁账号了/苏宁账号我已经有了/我已经有过苏宁账号了/我有苏宁账号/注册过了/我早就有苏宁账号了/有苏宁账号的/我是有苏宁易购账号的/我注册好了/注册好了/注册过了/已经注册过了/注册了的/我有账号的 /我有账号了能不能进店/我有注册苏宁金融账号，然后呢/我注册过苏宁金融账号了/注册过苏宁金融账号了/有账号/我有易购账号/易购账号行么/易购账号算什么/易购账号算么/以前注册过</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>/我要注册/我想注册/我注册/我要登录/我想登录/我注册好了/注册好了/注册过了/已经注册过了/注册了的/我有苏宁易购账号还要注册吗/有苏宁易购账号还要注册的吗/我注册过苏宁易购账号了啊/我是注册过苏宁易购账号的/我以前注册过苏宁易购账号的/我注册过苏宁易购账号了/苏宁易购账号/我有易购账号的，可以么/有易购账号算不算注册过/有易购账号算不算会员/我已经注册过苏宁易购了/我已经注册过了/我注册好了/我早就注册过苏宁账号了/苏宁账号我已经有了/我已经有过苏宁账号了/我有苏宁账号/注册过了/我早就有苏宁账号了/有苏宁账号的/我是有苏宁易购账号的/我有账号的 /我有账号了能不能进店/我有注册苏宁金融账号，然后呢/我注册过苏宁金融账号了/注册过苏宁金融账号了</t>
-        </r>
-        <phoneticPr fontId="1" type="noConversion"/>
+        <t>登录</t>
+      </is>
+    </nc>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="110" sId="2" xfDxf="1" dxf="1">
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>开启刷脸支付</t>
+      </is>
+    </nc>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="111" sId="2" xfDxf="1" dxf="1">
+    <nc r="H14" t="inlineStr">
+      <is>
+        <t>开启刷脸支付</t>
+      </is>
+    </nc>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="112" sId="2">
+    <nc r="H15" t="inlineStr">
+      <is>
+        <t>登录</t>
       </is>
     </nc>
   </rcc>
+  <rcc rId="113" sId="2" odxf="1">
+    <nc r="H17" t="inlineStr">
+      <is>
+        <t>登录</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="114" sId="2" xfDxf="1" dxf="1">
+    <nc r="H18" t="inlineStr">
+      <is>
+        <t>初级实名认证</t>
+      </is>
+    </nc>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="115" sId="2" xfDxf="1" dxf="1">
+    <nc r="H19" t="inlineStr">
+      <is>
+        <t>初级实名认证</t>
+      </is>
+    </nc>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="116" sId="2" odxf="1">
+    <nc r="H20" t="inlineStr">
+      <is>
+        <t>登录</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="117" sId="2" odxf="1" dxf="1">
+    <nc r="H21" t="inlineStr">
+      <is>
+        <t>登录</t>
+      </is>
+    </nc>
+    <odxf>
+      <protection locked="1"/>
+    </odxf>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="118" sId="2" odxf="1" dxf="1">
+    <nc r="H23" t="inlineStr">
+      <is>
+        <t>初级实名认证</t>
+      </is>
+    </nc>
+    <odxf>
+      <protection locked="1"/>
+    </odxf>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="119" sId="2" odxf="1" dxf="1">
+    <nc r="H24" t="inlineStr">
+      <is>
+        <t>初级实名认证</t>
+      </is>
+    </nc>
+    <odxf>
+      <protection locked="1"/>
+    </odxf>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="120" sId="2" odxf="1" dxf="1">
+    <nc r="H25" t="inlineStr">
+      <is>
+        <t>初级实名认证</t>
+      </is>
+    </nc>
+    <odxf>
+      <protection locked="1"/>
+    </odxf>
+    <ndxf>
+      <protection locked="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="121" sId="2" xfDxf="1" dxf="1">
+    <nc r="H27" t="inlineStr">
+      <is>
+        <t>开启刷脸支付成功</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" xfDxf="1" sqref="H28" start="0" length="0"/>
+  <rcc rId="122" sId="2">
+    <nc r="H28" t="inlineStr">
+      <is>
+        <t>欢迎界面-01</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" action="delete"/>
+  <rcv guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -939,15 +1073,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="96.375" customWidth="1"/>
-    <col min="6" max="6" width="68.375" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1119,6 +1256,9 @@
       <c r="F11" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="I11" s="4">
         <v>15</v>
       </c>
@@ -1142,6 +1282,9 @@
       <c r="F12" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I12" s="4">
         <v>15</v>
       </c>
@@ -1165,6 +1308,9 @@
       <c r="F13" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I13" s="4">
         <v>15</v>
       </c>
@@ -1185,6 +1331,9 @@
       <c r="F14" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I14" s="4">
         <v>15</v>
       </c>
@@ -1205,6 +1354,9 @@
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
         <v>71</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="I15" s="4">
         <v>15</v>
@@ -1232,6 +1384,9 @@
       <c r="F17" s="17" t="s">
         <v>86</v>
       </c>
+      <c r="H17" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I17" s="4">
         <v>15</v>
       </c>
@@ -1255,6 +1410,9 @@
       <c r="F18" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="H18" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="I18" s="4">
         <v>15</v>
       </c>
@@ -1276,6 +1434,9 @@
       <c r="F19" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="H19" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="I19" s="4">
         <v>15</v>
       </c>
@@ -1299,6 +1460,9 @@
       <c r="F20" s="17" t="s">
         <v>75</v>
       </c>
+      <c r="H20" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" s="21" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1316,6 +1480,9 @@
       </c>
       <c r="F21" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1341,6 +1508,9 @@
       <c r="F23" s="23" t="s">
         <v>85</v>
       </c>
+      <c r="H23" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="I23" s="4">
         <v>15</v>
       </c>
@@ -1364,6 +1534,9 @@
       <c r="F24" s="17" t="s">
         <v>82</v>
       </c>
+      <c r="H24" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" s="21" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1382,6 +1555,9 @@
       <c r="E25" s="15"/>
       <c r="F25" s="17" t="s">
         <v>81</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="I25" s="4"/>
     </row>
@@ -1406,6 +1582,9 @@
       <c r="F27" s="17" t="s">
         <v>78</v>
       </c>
+      <c r="H27" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="I27" s="4">
         <v>15</v>
       </c>
@@ -1426,6 +1605,9 @@
       <c r="E28" s="15"/>
       <c r="F28" s="17" t="s">
         <v>80</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -1434,8 +1616,8 @@
     <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" topLeftCell="B19">
+      <selection activeCell="H25" sqref="H25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
@@ -1444,8 +1626,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}">
-      <selection activeCell="F2" sqref="F2"/>
+    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
     </customSheetView>
@@ -1502,7 +1684,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}" topLeftCell="A64">
+    <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" topLeftCell="A64">
       <selection activeCell="B19" sqref="B19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1512,7 +1694,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" topLeftCell="A64">
+    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}" topLeftCell="A64">
       <selection activeCell="B19" sqref="B19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -1533,13 +1715,13 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}">
+    <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{35CFE192-710A-4597-A27A-79E92194DC45}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}">
+    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/update_data/data/suning_biu/dialogue/流程 11.7.xlsx
+++ b/update_data/data/suning_biu/dialogue/流程 11.7.xlsx
@@ -13,9 +13,9 @@
   </sheets>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
-    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="2"/>
+    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1675" windowHeight="819" activeSheetId="2"/>
+    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="2"/>
     <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{35CFE192-710A-4597-A27A-79E92194DC45}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="2"/>
-    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -263,9 +263,6 @@
     <t>我怎么进店</t>
   </si>
   <si>
-    <t>我怎么进店啊/这个店是怎么进去的/你能跟我说怎么进去这个店吗/我怎么进去买东西啊/这个店是怎么买东西的/你可以告诉我怎么进去的吗/要进这个店需要怎么做/怎么做才能进去/咋样才能进店/这个店咋进的/咋进这个店买东西啊/我想进这个店看看怎么搞/进这个店需要什么手续/能进这个店里面看看吗/怎么才可以进这个店里面看看/这个店是怎么进去买东西的/需要什么东西才可以进去这个店/可以跟我说怎么进去买东西的吗/怎么进店/这个无人店怎么进啊/进这个店之前需要弄什么东西吗/进店怎么进/这个无人店怎么买东西啊/进店之前需要干嘛/里面怎么消费的/怎么购物的/怎么买东西/在店里怎么消费/在店里怎么购物/怎么在店里购物买东西/我要怎么进店/我想进店怎么办/我要进店/我说这个店怎么去买东西/你们店里面怎么去拿东西啊/怎么进无人店/无人店怎么进的/如何进店/如何进无人店/如何进去买东西/无人店可以直接进去吗/我可以进店了/我要进店了/我进店了哦/我进店里面去了呦/我能进店里吗/这个无人店怎么进去体验/我怎样去无人店体验/我怎么进去无人店/咋进店呢/这个无人店的话我要怎么进去体验呢/能不能告诉我怎么进店/可以告诉我怎么进店吗/可以跟我说说怎么进店吗/你能跟我说说怎么进店吗/跟我说说怎么进店/上一步是什么/第一步是什么/第一步/第一个步骤/最开始的步骤/第一步/上一步做什么/最初的步骤/第一个步骤/第一步呢/上一个环节/上一个环节做什么/上一个/最开始的步骤/最开始的环节/</t>
-  </si>
-  <si>
     <t>全部都弄好了么</t>
   </si>
   <si>
@@ -300,10 +297,6 @@
   </si>
   <si>
     <t xml:space="preserve">登录成功/登录成功怎么办/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/好了/OK了/完成啦/完事了/搞定/然后呢/接下来呢/弄好了/接下来怎么做/成功了/可以了/弄好了/做好了/完成了/弄完了/行啦/好了还要弄什么/你看弄好了/登录成功啦/登录好了怎么认证/登录了然后呢/登录了还要我认证/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登进去了/哇，登录成功了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录进来了，然后呢/进来了，然后呢/登进来了，接下来呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录上了/登上去了然后做什么/已经登录上去了/可以了，登录成功/好了好了登录上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我已经登进去了/注册好了，接下来怎么办/登进去了/登好了，接下来怎么办/我弄好了，下一步呢/好了，还要干嘛么/登进去了，还需要弄什么吗/登进去之后还要干嘛吗/我登进去了，可以了吗/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登上啦，接下来呢要干嘛/登上啦，接着干嘛/登录好了，接下来呢/账号登上啦，还需要干嘛/我登上啦，然后呢/登录成功啦，接着干嘛/可以啦，我登上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功了，接下来我该做什么/我已经登录成功了/登录成功后做什么啊/登录成功了，请问下一步该做什么/登录成功了然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录好了干什么/登录成功了干什么/登录好了，然后要干嘛/登录上了/登进去了/是问你什么我已经登录了接下来我该怎么办/
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录成功/登录成功怎么办/登录成功啦/登录好了/登好了/登录上去了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了怎么认证/登录了然后呢/登录了还要我认证/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登进去了/哇，登录成功了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录进来了，然后呢/进来了，然后呢/登进来了，接下来呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录上了/登上去了然后做什么/已经登录上去了/可以了，登录成功/好了好了登录上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我已经登进去了/注册好了，接下来怎么办/登进去了/登好了，接下来怎么办/登进去了，还需要弄什么吗/登进去之后还要干嘛吗/我登进去了，可以了吗/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登上啦，接下来呢要干嘛/登上啦，接着干嘛/登录好了，接下来呢/账号登上啦，还需要干嘛/我登上啦，然后呢/登录成功啦，接着干嘛/可以啦，我登上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功了，接下来我该做什么/我已经登录成功了/登录成功后做什么啊/登录成功了，请问下一步该做什么/登录成功了然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录好了干什么/登录成功了干什么/登录好了，然后要干嘛/登录上了/登进去了/是问你什么我已经登录了接下来我该怎么办/
 </t>
   </si>
   <si>
@@ -373,10 +366,6 @@
     <t>第二步</t>
   </si>
   <si>
-    <t>实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/好了/实名认证完成啦/认证完成了，然后呢/认证好了，怎么刷脸/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/认证好了/实名完成了/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/好了，然后呢/认证完成，然后呢/已实名认证，然后嘞/好了，接下来呢/实名完成/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/实名认证通过了/实名认证已经搞定了/实名认证完下一步做什么/实名可以了/我已经把实名弄好了/搞好了接下去怎么做/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我认证好了/认证完成了，接下来还要干什么吗/认证好了/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我认证好了，接下来呢/认证完啦，还需要啥/我认证好咯/认证成功啦，接着呢/可以啦，我的认证通过啦/认证完成啦/认证可以啦，接下来还需要干嘛/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我实名认证成功了，然后该做什么啊/实名认证完成了/我已经完成了实名认证/我已经完成了实名认证，接下来做什么/实名认证刚刚已经成功了，接着我要做什么啊/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/完成实名认证了/实名认证了/实名了/认证了/实名认证过了/好了我认证成功了接下来怎么办实名认证成功了，下一步呢/实名认证成功了，然后呢/实名认证成功了，接下来做什么/实名好了，接下来呢/     怎么绑定人脸/怎么绑脸/如何绑脸/我要绑脸/我要刷脸支付/我要刷脸/我要绑定人脸信息/我还没有绑脸呢/如何绑定刷脸/如何绑定人脸/绑脸怎么绑/我要刷一下人脸信息/我怎么刷脸信息/我怎么刷脸/我要绑一下面部信息/第一步结束了/第一步弄好了/第一步做好了/第一步完成了/上一步弄完了/上一步做完了/上一步搞定了/第一步搞定了/第一步没问题了/上一步没问题了/之前的弄完了/之前的没问题了/第二步/第二步是什么/第二步做什么/然后第二步呢/我想知道第二步是什么/下一步呢/下一步做什么/下一个环节/下一个/下一个环节做什么、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/已经登录APP了要怎么办/登录APP了接下来要干什么/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登进来了/登录进来了，然后呢/登好了，然后呢/登进来了，接下来呢/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录上了/登上去了然后做什么/已经登录上去了/可以了，登录成功/好了好了登录上了/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/怎么实名认证啊/实名认证怎么认证/实名认证怎么设置/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登上啦，接下来呢要干嘛/登上啦，接着干嘛/登录好了，接下来呢/账号登上啦，还需要干嘛/我登上啦，然后呢/登录成功啦，接着干嘛/可以啦，我登上了/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功了，接下来我该做什么/我已经登录成功了/登录成功后做什么啊/登录成功了，请问下一步该做什么/登录成功了然后呢/我登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录好了干什么/登录成功了干什么/登录好了，然后要干嘛/登录上了/登进去了/我没有实名认证/实名认证还没有成功/我实名认证还没有弄完/实名认证没成功/怎么实名认证/如何实名认证/如何实名/怎么实名/怎么认证/如何认证/我要认证/认证是怎么一回事/实名认证是怎么弄得/实名认证/我怎么才能实名认证/我要怎么绑定自己的身份信息/怎么绑定身份证/在哪设置支付密码/我在哪里弄这个支付密码/我支付密码在哪里设置/我点哪儿设置支付密码/苏宁金融哪里能设置支付密码/苏宁金融在哪儿设置支付密码/我怎么才能设置支付密码/实名认证怎么办/我要实名认证/</t>
     </r>
@@ -437,6 +426,42 @@
   </si>
   <si>
     <t>欢迎界面-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">登录成功/登录成功怎么办/登录成功啦/登录好了/登好了/登录上去了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了怎么认证/登录了然后呢/登录了还要我认证/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登进去了/哇，登录成功了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录进来了，然后呢/进来了，然后呢/登进来了，接下来呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录上了/登上去了然后做什么/已经登录上去了/可以了，登录成功/好了好了登录上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我已经登进去了/注册好了，接下来怎么办/登进去了/登好了，接下来怎么办/登进去了，还需要弄什么吗/登进去之后还要干嘛吗/我登进去了，可以了吗/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登上啦，接下来呢要干嘛/登上啦，接着干嘛/登录好了，接下来呢/账号登上啦，还需要干嘛/我登上啦，然后呢/登录成功啦，接着干嘛/可以啦，我登上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功了，接下来我该做什么/我已经登录成功了/登录成功后做什么啊/登录成功了，请问下一步该做什么/登录成功了然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录好了干什么/登录成功了干什么/登录好了，然后要干嘛/登录上了/登进去了/是问你什么我已经登录了接下来我该怎么办/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我怎么进店啊/这个店是怎么进去的/你能跟我说怎么进去这个店吗/我怎么进去买东西啊/这个店是怎么买东西的/你可以告诉我怎么进去的吗/要进这个店需要怎么做/怎么做才能进去/咋样才能进店/这个店咋进的/咋进这个店买东西啊/我想进这个店看看怎么搞/进这个店需要什么手续/能进这个店里面看看吗/怎么才可以进这个店里面看看/这个店是怎么进去买东西的/需要什么东西才可以进去这个店/可以跟我说怎么进去买东西的吗/怎么进店/这个无人店怎么进啊/进这个店之前需要弄什么东西吗/进店怎么进/这个无人店怎么买东西啊/进店之前需要干嘛/里面怎么消费的/怎么购物的/怎么买东西/在店里怎么消费/在店里怎么购物/怎么在店里购物买东西/我要怎么进店/我想进店怎么办/我要进店/我说这个店怎么去买东西/你们店里面怎么去拿东西啊/怎么进无人店/无人店怎么进的/如何进店/如何进无人店/如何进去买东西/无人店可以直接进去吗/我可以进店了/我要进店了/我进店了哦/我进店里面去了呦/我能进店里吗/这个无人店怎么进去体验/我怎样去无人店体验/我怎么进去无人店/咋进店呢/这个无人店的话我要怎么进去体验呢/能不能告诉我怎么进店/可以告诉我怎么进店吗/可以跟我说说怎么进店吗/你能跟我说说怎么进店吗/跟我说说怎么进店/上一步是什么/第一步是什么/第一步/第一个步骤/最开始的步骤/第一步/上一步做什么/最初的步骤/第一个步骤/第一步呢/上一个环节/上一个环节做什么/上一个/最开始的步骤/最开始的环节/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/好了/实名认证完成啦/认证完成了，然后呢/认证好了，怎么刷脸/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/认证好了/实名完成了/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/好了，然后呢/认证完成，然后呢/已实名认证，然后嘞/好了，接下来呢/实名完成/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/实名认证通过了/实名认证已经搞定了/实名认证完下一步做什么/实名可以了/我已经把实名弄好了/搞好了接下去怎么做/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我认证好了/认证完成了，接下来还要干什么吗/认证好了/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我认证好了，接下来呢/认证完啦，还需要啥/我认证好咯/认证成功啦，接着呢/可以啦，我的认证通过啦/认证完成啦/认证可以啦，接下来还需要干嘛/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我实名认证成功了，然后该做什么啊/实名认证完成了/我已经完成了实名认证/我已经完成了实名认证，接下来做什么/实名认证刚刚已经成功了，接着我要做什么啊/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/完成实名认证了/实名认证了/实名了/认证了/实名认证过了/好了我认证成功了接下来怎么办实名认证成功了，下一步呢/实名认证成功了，然后呢/实名认证成功了，接下来做什么/实名好了，接下来呢/     怎么绑定人脸/怎么绑脸/如何绑脸/我要绑脸/我要刷脸支付/我要刷脸/我要绑定人脸信息/我还没有绑脸呢/如何绑定刷脸/如何绑定人脸/绑脸怎么绑/我要刷一下人脸信息/我怎么刷脸信息/我怎么刷脸/我要绑一下面部信息/第一步结束了/第一步弄好了/第一步做好了/第一步完成了/上一步弄完了/上一步做完了/上一步搞定了/第一步搞定了/第一步没问题了/上一步没问题了/之前的弄完了/之前的没问题了/第二步/第二步是什么/第二步做什么/然后第二步呢/我想知道第二步是什么/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下一步呢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/下一步做什么/下一个环节/下一个/下一个环节做什么、</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,8 +636,15 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C5FC5A4C-69D4-4224-8803-3290558F8964}" diskRevisions="1" revisionId="122" version="54">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9754F88C-848D-420A-8DDA-5313AFA0E21B}" diskRevisions="1" revisionId="125" version="55">
   <header guid="{C5FC5A4C-69D4-4224-8803-3290558F8964}" dateTime="2018-01-28T14:20:53" maxSheetId="4" userName="fang.gao(高芳)" r:id="rId54" minRId="108" maxRId="122">
+    <sheetIdMap count="3">
+      <sheetId val="2"/>
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9754F88C-848D-420A-8DDA-5313AFA0E21B}" dateTime="2018-01-28T14:46:24" maxSheetId="4" userName="fang.gao(高芳)" r:id="rId55" minRId="123" maxRId="125">
     <sheetIdMap count="3">
       <sheetId val="2"/>
       <sheetId val="1"/>
@@ -780,7 +812,77 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="123" sId="2">
+    <oc r="F19" t="inlineStr">
+      <is>
+        <t xml:space="preserve">登录成功/登录成功怎么办/登录成功啦/登录好了/登好了/登录上去了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了怎么认证/登录了然后呢/登录了还要我认证/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登进去了/哇，登录成功了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录进来了，然后呢/进来了，然后呢/登进来了，接下来呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录上了/登上去了然后做什么/已经登录上去了/可以了，登录成功/好了好了登录上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我已经登进去了/注册好了，接下来怎么办/登进去了/登好了，接下来怎么办/登进去了，还需要弄什么吗/登进去之后还要干嘛吗/我登进去了，可以了吗/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登上啦，接下来呢要干嘛/登上啦，接着干嘛/登录好了，接下来呢/账号登上啦，还需要干嘛/我登上啦，然后呢/登录成功啦，接着干嘛/可以啦，我登上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功了，接下来我该做什么/我已经登录成功了/登录成功后做什么啊/登录成功了，请问下一步该做什么/登录成功了然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录好了干什么/登录成功了干什么/登录好了，然后要干嘛/登录上了/登进去了/是问你什么我已经登录了接下来我该怎么办/
+</t>
+      </is>
+    </oc>
+    <nc r="F19" t="inlineStr">
+      <is>
+        <t xml:space="preserve">登录成功/登录成功怎么办/登录成功啦/登录好了/登好了/登录上去了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了怎么认证/登录了然后呢/登录了还要我认证/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登进去了/哇，登录成功了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录进来了，然后呢/进来了，然后呢/登进来了，接下来呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录上了/登上去了然后做什么/已经登录上去了/可以了，登录成功/好了好了登录上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我已经登进去了/注册好了，接下来怎么办/登进去了/登好了，接下来怎么办/登进去了，还需要弄什么吗/登进去之后还要干嘛吗/我登进去了，可以了吗/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登上啦，接下来呢要干嘛/登上啦，接着干嘛/登录好了，接下来呢/账号登上啦，还需要干嘛/我登上啦，然后呢/登录成功啦，接着干嘛/可以啦，我登上了/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/我登录成功了，接下来我该做什么/我已经登录成功了/登录成功后做什么啊/登录成功了，请问下一步该做什么/登录成功了然后呢/登录成功啦/登录好了/登录好了怎么办/登录好了接下来做什么/登录成功了，然后呢/登录好了干什么/登录成功了干什么/登录好了，然后要干嘛/登录上了/登进去了/是问你什么我已经登录了接下来我该怎么办/
+</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="124" sId="2">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>我怎么进店啊/这个店是怎么进去的/你能跟我说怎么进去这个店吗/我怎么进去买东西啊/这个店是怎么买东西的/你可以告诉我怎么进去的吗/要进这个店需要怎么做/怎么做才能进去/咋样才能进店/这个店咋进的/咋进这个店买东西啊/我想进这个店看看怎么搞/进这个店需要什么手续/能进这个店里面看看吗/怎么才可以进这个店里面看看/这个店是怎么进去买东西的/需要什么东西才可以进去这个店/可以跟我说怎么进去买东西的吗/怎么进店/这个无人店怎么进啊/进这个店之前需要弄什么东西吗/进店怎么进/这个无人店怎么买东西啊/进店之前需要干嘛/里面怎么消费的/怎么购物的/怎么买东西/在店里怎么消费/在店里怎么购物/怎么在店里购物买东西/我要怎么进店/我想进店怎么办/我要进店/我说这个店怎么去买东西/你们店里面怎么去拿东西啊/怎么进无人店/无人店怎么进的/如何进店/如何进无人店/如何进去买东西/无人店可以直接进去吗/我可以进店了/我要进店了/我进店了哦/我进店里面去了呦/我能进店里吗/这个无人店怎么进去体验/我怎样去无人店体验/我怎么进去无人店/咋进店呢/这个无人店的话我要怎么进去体验呢/能不能告诉我怎么进店/可以告诉我怎么进店吗/可以跟我说说怎么进店吗/你能跟我说说怎么进店吗/跟我说说怎么进店/上一步是什么/第一步是什么/第一步/第一个步骤/最开始的步骤/第一步/上一步做什么/最初的步骤/第一个步骤/第一步呢/上一个环节/上一个环节做什么/上一个/最开始的步骤/最开始的环节/</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>我怎么进店啊/这个店是怎么进去的/你能跟我说怎么进去这个店吗/我怎么进去买东西啊/这个店是怎么买东西的/你可以告诉我怎么进去的吗/要进这个店需要怎么做/怎么做才能进去/咋样才能进店/这个店咋进的/咋进这个店买东西啊/我想进这个店看看怎么搞/进这个店需要什么手续/能进这个店里面看看吗/怎么才可以进这个店里面看看/这个店是怎么进去买东西的/需要什么东西才可以进去这个店/可以跟我说怎么进去买东西的吗/怎么进店/这个无人店怎么进啊/进这个店之前需要弄什么东西吗/进店怎么进/这个无人店怎么买东西啊/进店之前需要干嘛/里面怎么消费的/怎么购物的/怎么买东西/在店里怎么消费/在店里怎么购物/怎么在店里购物买东西/我要怎么进店/我想进店怎么办/我要进店/我说这个店怎么去买东西/你们店里面怎么去拿东西啊/怎么进无人店/无人店怎么进的/如何进店/如何进无人店/如何进去买东西/无人店可以直接进去吗/我可以进店了/我要进店了/我进店了哦/我进店里面去了呦/我能进店里吗/这个无人店怎么进去体验/我怎样去无人店体验/我怎么进去无人店/咋进店呢/这个无人店的话我要怎么进去体验呢/能不能告诉我怎么进店/可以告诉我怎么进店吗/可以跟我说说怎么进店吗/你能跟我说说怎么进店吗/跟我说说怎么进店/上一步是什么/第一步是什么/第一步/第一个步骤/最开始的步骤/第一步/上一步做什么/最初的步骤/第一个步骤/第一步呢/上一个环节/上一个环节做什么/上一个/最开始的步骤/最开始的环节/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="125" sId="2">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t>实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/好了/实名认证完成啦/认证完成了，然后呢/认证好了，怎么刷脸/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/认证好了/实名完成了/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/好了，然后呢/认证完成，然后呢/已实名认证，然后嘞/好了，接下来呢/实名完成/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/实名认证通过了/实名认证已经搞定了/实名认证完下一步做什么/实名可以了/我已经把实名弄好了/搞好了接下去怎么做/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我认证好了/认证完成了，接下来还要干什么吗/认证好了/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我认证好了，接下来呢/认证完啦，还需要啥/我认证好咯/认证成功啦，接着呢/可以啦，我的认证通过啦/认证完成啦/认证可以啦，接下来还需要干嘛/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我实名认证成功了，然后该做什么啊/实名认证完成了/我已经完成了实名认证/我已经完成了实名认证，接下来做什么/实名认证刚刚已经成功了，接着我要做什么啊/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/完成实名认证了/实名认证了/实名了/认证了/实名认证过了/好了我认证成功了接下来怎么办实名认证成功了，下一步呢/实名认证成功了，然后呢/实名认证成功了，接下来做什么/实名好了，接下来呢/     怎么绑定人脸/怎么绑脸/如何绑脸/我要绑脸/我要刷脸支付/我要刷脸/我要绑定人脸信息/我还没有绑脸呢/如何绑定刷脸/如何绑定人脸/绑脸怎么绑/我要刷一下人脸信息/我怎么刷脸信息/我怎么刷脸/我要绑一下面部信息/第一步结束了/第一步弄好了/第一步做好了/第一步完成了/上一步弄完了/上一步做完了/上一步搞定了/第一步搞定了/第一步没问题了/上一步没问题了/之前的弄完了/之前的没问题了/第二步/第二步是什么/第二步做什么/然后第二步呢/我想知道第二步是什么/下一步呢/下一步做什么/下一个环节/下一个/下一个环节做什么、</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <t>实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/好了/实名认证完成啦/认证完成了，然后呢/认证好了，怎么刷脸/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/认证好了/实名完成了/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/好了，然后呢/认证完成，然后呢/已实名认证，然后嘞/好了，接下来呢/实名完成/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/实名认证通过了/实名认证已经搞定了/实名认证完下一步做什么/实名可以了/我已经把实名弄好了/搞好了接下去怎么做/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我认证好了/认证完成了，接下来还要干什么吗/认证好了/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我认证好了，接下来呢/认证完啦，还需要啥/我认证好咯/认证成功啦，接着呢/可以啦，我的认证通过啦/认证完成啦/认证可以啦，接下来还需要干嘛/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/我实名认证成功了，然后该做什么啊/实名认证完成了/我已经完成了实名认证/我已经完成了实名认证，接下来做什么/实名认证刚刚已经成功了，接着我要做什么啊/实名认证完成啦/实名认证做完了/初级实名认证好了/实名认证结束了/实名认证好了，然后呢/实名认证好了，接下来呢/完成实名认证了/实名认证了/实名了/认证了/实名认证过了/好了我认证成功了接下来怎么办实名认证成功了，下一步呢/实名认证成功了，然后呢/实名认证成功了，接下来做什么/实名好了，接下来呢/     怎么绑定人脸/怎么绑脸/如何绑脸/我要绑脸/我要刷脸支付/我要刷脸/我要绑定人脸信息/我还没有绑脸呢/如何绑定刷脸/如何绑定人脸/绑脸怎么绑/我要刷一下人脸信息/我怎么刷脸信息/我怎么刷脸/我要绑一下面部信息/第一步结束了/第一步弄好了/第一步做好了/第一步完成了/上一步弄完了/上一步做完了/上一步搞定了/第一步搞定了/第一步没问题了/上一步没问题了/之前的弄完了/之前的没问题了/第二步/第二步是什么/第二步做什么/然后第二步呢/我想知道第二步是什么/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>下一步呢</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+          </rPr>
+          <t>/下一步做什么/下一个环节/下一个/下一个环节做什么、</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" action="delete"/>
+  <rcv guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -1073,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1083,7 +1185,7 @@
     <col min="2" max="2" width="96.375" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="5.75" customWidth="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1130,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -1150,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>5</v>
@@ -1167,7 +1269,7 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>53</v>
@@ -1179,10 +1281,10 @@
         <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1199,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>3</v>
@@ -1219,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>5</v>
@@ -1241,7 +1343,7 @@
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>16</v>
@@ -1254,10 +1356,10 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" s="4">
         <v>15</v>
@@ -1280,10 +1382,10 @@
         <v>26</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I12" s="4">
         <v>15</v>
@@ -1306,10 +1408,10 @@
         <v>26</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I13" s="4">
         <v>15</v>
@@ -1329,10 +1431,10 @@
         <v>30</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I14" s="4">
         <v>15</v>
@@ -1353,10 +1455,10 @@
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" s="4">
         <v>15</v>
@@ -1369,7 +1471,7 @@
     </row>
     <row r="17" spans="1:9" s="18" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>47</v>
@@ -1382,10 +1484,10 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17" s="4">
         <v>15</v>
@@ -1408,10 +1510,10 @@
         <v>27</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I18" s="4">
         <v>15</v>
@@ -1432,10 +1534,10 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I19" s="4">
         <v>15</v>
@@ -1458,10 +1560,10 @@
         <v>27</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -1479,10 +1581,10 @@
         <v>35</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1506,10 +1608,10 @@
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I23" s="4">
         <v>15</v>
@@ -1532,10 +1634,10 @@
         <v>32</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I24" s="4"/>
     </row>
@@ -1554,10 +1656,10 @@
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I25" s="4"/>
     </row>
@@ -1568,7 +1670,7 @@
     </row>
     <row r="27" spans="1:9" s="21" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>43</v>
@@ -1580,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I27" s="4">
         <v>15</v>
@@ -1591,7 +1693,7 @@
     </row>
     <row r="28" spans="1:9" s="21" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>44</v>
@@ -1604,10 +1706,10 @@
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -1616,18 +1718,18 @@
     <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" topLeftCell="B19">
-      <selection activeCell="H25" sqref="H25"/>
+    <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}" topLeftCell="B1">
+      <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{35CFE192-710A-4597-A27A-79E92194DC45}" topLeftCell="A13">
-      <selection activeCell="F14" sqref="F14"/>
+    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{35CFE192-710A-4597-A27A-79E92194DC45}" topLeftCell="A13">
+      <selection activeCell="F14" sqref="F14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
     </customSheetView>
@@ -1689,12 +1791,12 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{35CFE192-710A-4597-A27A-79E92194DC45}" topLeftCell="A64">
+    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}" topLeftCell="A64">
       <selection activeCell="B19" sqref="B19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}" topLeftCell="A64">
+    <customSheetView guid="{35CFE192-710A-4597-A27A-79E92194DC45}" topLeftCell="A64">
       <selection activeCell="B19" sqref="B19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -1718,10 +1820,10 @@
     <customSheetView guid="{EB656F78-4F67-498C-8A45-7110D8324EA3}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{35CFE192-710A-4597-A27A-79E92194DC45}">
+    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{D3A6E885-7D59-4153-A6F7-9EA8F02D45F0}">
+    <customSheetView guid="{35CFE192-710A-4597-A27A-79E92194DC45}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
